--- a/biology/Biologie cellulaire et moléculaire/FOXM1/FOXM1.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/FOXM1/FOXM1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le FOXM1 est une protéine de type FOX dont le gène est FOXM1 situé sur le chromosome 12 humain.
 </t>
@@ -511,10 +523,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il joue un rôle de facteur de transcription. Ses différentes cibles sont notamment la cycline B[5],  la Cdc25B phosphatase, l'aurora B kinase, le Polo-like kinase , le CENP-F, jouant ainsi un rôle, par l'intermédiaire de ce dernier, dans la ségrégation chromosomique lors d'une mitose[6]. 
-Il favorise la cicatrisation de la barrière endothéliale après une blessure vasculaire[7] en activant la voie du PIK3CG[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il joue un rôle de facteur de transcription. Ses différentes cibles sont notamment la cycline B,  la Cdc25B phosphatase, l'aurora B kinase, le Polo-like kinase , le CENP-F, jouant ainsi un rôle, par l'intermédiaire de ce dernier, dans la ségrégation chromosomique lors d'une mitose. 
+Il favorise la cicatrisation de la barrière endothéliale après une blessure vasculaire en activant la voie du PIK3CG.
 </t>
         </is>
       </c>
